--- a/testExcel_1.xlsx
+++ b/testExcel_1.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Edited file" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -16,14 +16,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t>testExcel_1</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -339,7 +331,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:W30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -347,9 +339,2134 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>9675</v>
+      </c>
+      <c r="B1">
+        <v>41569</v>
+      </c>
+      <c r="C1">
+        <v>68995</v>
+      </c>
+      <c r="D1">
+        <v>34355</v>
+      </c>
+      <c r="E1">
+        <v>77350</v>
+      </c>
+      <c r="F1">
+        <v>22813</v>
+      </c>
+      <c r="G1">
+        <v>37400</v>
+      </c>
+      <c r="H1">
+        <v>63115</v>
+      </c>
+      <c r="I1">
+        <v>41787</v>
+      </c>
+      <c r="J1">
+        <v>15327</v>
+      </c>
+      <c r="K1">
+        <v>15864</v>
+      </c>
+      <c r="L1">
+        <v>42484</v>
+      </c>
+      <c r="M1">
+        <v>6161</v>
+      </c>
+      <c r="N1">
+        <v>54026</v>
+      </c>
+      <c r="O1">
+        <v>59673</v>
+      </c>
+      <c r="P1">
+        <v>5576</v>
+      </c>
+      <c r="Q1">
+        <v>33254</v>
+      </c>
+      <c r="R1">
+        <v>75215</v>
+      </c>
+      <c r="S1">
+        <v>19792</v>
+      </c>
+      <c r="T1">
+        <v>4090</v>
+      </c>
+      <c r="U1">
+        <v>94277</v>
+      </c>
+      <c r="V1">
+        <v>58393</v>
+      </c>
+      <c r="W1">
+        <v>47881</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>27563</v>
+      </c>
+      <c r="B2">
+        <v>93474</v>
+      </c>
+      <c r="C2">
+        <v>44903</v>
+      </c>
+      <c r="D2">
+        <v>29802</v>
+      </c>
+      <c r="E2">
+        <v>57089</v>
+      </c>
+      <c r="F2">
+        <v>86986</v>
+      </c>
+      <c r="G2">
+        <v>43328</v>
+      </c>
+      <c r="H2">
+        <v>11863</v>
+      </c>
+      <c r="I2">
+        <v>11830</v>
+      </c>
+      <c r="J2">
+        <v>6691</v>
+      </c>
+      <c r="K2">
+        <v>83003</v>
+      </c>
+      <c r="L2">
+        <v>6184</v>
+      </c>
+      <c r="M2">
+        <v>36522</v>
+      </c>
+      <c r="N2">
+        <v>933</v>
+      </c>
+      <c r="O2">
+        <v>19200</v>
+      </c>
+      <c r="P2">
+        <v>25786</v>
+      </c>
+      <c r="Q2">
+        <v>69585</v>
+      </c>
+      <c r="R2">
+        <v>66721</v>
+      </c>
+      <c r="S2">
+        <v>61795</v>
+      </c>
+      <c r="T2">
+        <v>18895</v>
+      </c>
+      <c r="U2">
+        <v>72330</v>
+      </c>
+      <c r="V2">
+        <v>92610</v>
+      </c>
+      <c r="W2">
+        <v>41086</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>68742</v>
+      </c>
+      <c r="B3">
+        <v>6746</v>
+      </c>
+      <c r="C3">
+        <v>5586</v>
+      </c>
+      <c r="D3">
+        <v>60356</v>
+      </c>
+      <c r="E3">
+        <v>13667</v>
+      </c>
+      <c r="F3">
+        <v>93166</v>
+      </c>
+      <c r="G3">
+        <v>97016</v>
+      </c>
+      <c r="H3">
+        <v>29749</v>
+      </c>
+      <c r="I3">
+        <v>75324</v>
+      </c>
+      <c r="J3">
+        <v>51280</v>
+      </c>
+      <c r="K3">
+        <v>93686</v>
+      </c>
+      <c r="L3">
+        <v>41530</v>
+      </c>
+      <c r="M3">
+        <v>40880</v>
+      </c>
+      <c r="N3">
+        <v>32545</v>
+      </c>
+      <c r="O3">
+        <v>93010</v>
+      </c>
+      <c r="P3">
+        <v>80310</v>
+      </c>
+      <c r="Q3">
+        <v>76127</v>
+      </c>
+      <c r="R3">
+        <v>98457</v>
+      </c>
+      <c r="S3">
+        <v>3563</v>
+      </c>
+      <c r="T3">
+        <v>4133</v>
+      </c>
+      <c r="U3">
+        <v>35892</v>
+      </c>
+      <c r="V3">
+        <v>23157</v>
+      </c>
+      <c r="W3">
+        <v>47940</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>23249</v>
+      </c>
+      <c r="B4">
+        <v>4742</v>
+      </c>
+      <c r="C4">
+        <v>14153</v>
+      </c>
+      <c r="D4">
+        <v>49527</v>
+      </c>
+      <c r="E4">
+        <v>50205</v>
+      </c>
+      <c r="F4">
+        <v>37368</v>
+      </c>
+      <c r="G4">
+        <v>32580</v>
+      </c>
+      <c r="H4">
+        <v>39597</v>
+      </c>
+      <c r="I4">
+        <v>75549</v>
+      </c>
+      <c r="J4">
+        <v>34952</v>
+      </c>
+      <c r="K4">
+        <v>52486</v>
+      </c>
+      <c r="L4">
+        <v>76159</v>
+      </c>
+      <c r="M4">
+        <v>23154</v>
+      </c>
+      <c r="N4">
+        <v>51602</v>
+      </c>
+      <c r="O4">
+        <v>26729</v>
+      </c>
+      <c r="P4">
+        <v>29760</v>
+      </c>
+      <c r="Q4">
+        <v>18696</v>
+      </c>
+      <c r="R4">
+        <v>14812</v>
+      </c>
+      <c r="S4">
+        <v>76940</v>
+      </c>
+      <c r="T4">
+        <v>7777</v>
+      </c>
+      <c r="U4">
+        <v>54902</v>
+      </c>
+      <c r="V4">
+        <v>42834</v>
+      </c>
+      <c r="W4">
+        <v>59401</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>78318</v>
+      </c>
+      <c r="B5">
+        <v>93239</v>
+      </c>
+      <c r="C5">
+        <v>76573</v>
+      </c>
+      <c r="D5">
+        <v>86410</v>
+      </c>
+      <c r="E5">
+        <v>85666</v>
+      </c>
+      <c r="F5">
+        <v>20436</v>
+      </c>
+      <c r="G5">
+        <v>68866</v>
+      </c>
+      <c r="H5">
+        <v>88575</v>
+      </c>
+      <c r="I5">
+        <v>5292</v>
+      </c>
+      <c r="J5">
+        <v>45684</v>
+      </c>
+      <c r="K5">
+        <v>58805</v>
+      </c>
+      <c r="L5">
+        <v>82335</v>
+      </c>
+      <c r="M5">
+        <v>55712</v>
+      </c>
+      <c r="N5">
+        <v>99513</v>
+      </c>
+      <c r="O5">
+        <v>43737</v>
+      </c>
+      <c r="P5">
+        <v>46909</v>
+      </c>
+      <c r="Q5">
+        <v>92380</v>
+      </c>
+      <c r="R5">
+        <v>42842</v>
+      </c>
+      <c r="S5">
+        <v>11781</v>
+      </c>
+      <c r="T5">
+        <v>18235</v>
+      </c>
+      <c r="U5">
+        <v>6677</v>
+      </c>
+      <c r="V5">
+        <v>88393</v>
+      </c>
+      <c r="W5">
+        <v>56385</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>69955</v>
+      </c>
+      <c r="B6">
+        <v>28806</v>
+      </c>
+      <c r="C6">
+        <v>49497</v>
+      </c>
+      <c r="D6">
+        <v>68796</v>
+      </c>
+      <c r="E6">
+        <v>84866</v>
+      </c>
+      <c r="F6">
+        <v>89320</v>
+      </c>
+      <c r="G6">
+        <v>58951</v>
+      </c>
+      <c r="H6">
+        <v>15478</v>
+      </c>
+      <c r="I6">
+        <v>93036</v>
+      </c>
+      <c r="J6">
+        <v>80413</v>
+      </c>
+      <c r="K6">
+        <v>45340</v>
+      </c>
+      <c r="L6">
+        <v>35833</v>
+      </c>
+      <c r="M6">
+        <v>56286</v>
+      </c>
+      <c r="N6">
+        <v>73630</v>
+      </c>
+      <c r="O6">
+        <v>50956</v>
+      </c>
+      <c r="P6">
+        <v>46912</v>
+      </c>
+      <c r="Q6">
+        <v>19259</v>
+      </c>
+      <c r="R6">
+        <v>6782</v>
+      </c>
+      <c r="S6">
+        <v>46375</v>
+      </c>
+      <c r="T6">
+        <v>47292</v>
+      </c>
+      <c r="U6">
+        <v>30574</v>
+      </c>
+      <c r="V6">
+        <v>64348</v>
+      </c>
+      <c r="W6">
+        <v>69265</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>71016</v>
+      </c>
+      <c r="B7">
+        <v>30245</v>
+      </c>
+      <c r="C7">
+        <v>74957</v>
+      </c>
+      <c r="D7">
+        <v>67901</v>
+      </c>
+      <c r="E7">
+        <v>84558</v>
+      </c>
+      <c r="F7">
+        <v>64934</v>
+      </c>
+      <c r="G7">
+        <v>43219</v>
+      </c>
+      <c r="H7">
+        <v>24697</v>
+      </c>
+      <c r="I7">
+        <v>52823</v>
+      </c>
+      <c r="J7">
+        <v>89924</v>
+      </c>
+      <c r="K7">
+        <v>36953</v>
+      </c>
+      <c r="L7">
+        <v>6717</v>
+      </c>
+      <c r="M7">
+        <v>57702</v>
+      </c>
+      <c r="N7">
+        <v>36267</v>
+      </c>
+      <c r="O7">
+        <v>51639</v>
+      </c>
+      <c r="P7">
+        <v>83998</v>
+      </c>
+      <c r="Q7">
+        <v>99254</v>
+      </c>
+      <c r="R7">
+        <v>46340</v>
+      </c>
+      <c r="S7">
+        <v>30304</v>
+      </c>
+      <c r="T7">
+        <v>65767</v>
+      </c>
+      <c r="U7">
+        <v>2021</v>
+      </c>
+      <c r="V7">
+        <v>10470</v>
+      </c>
+      <c r="W7">
+        <v>63779</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>87449</v>
+      </c>
+      <c r="B8">
+        <v>73278</v>
+      </c>
+      <c r="C8">
+        <v>41522</v>
+      </c>
+      <c r="D8">
+        <v>95928</v>
+      </c>
+      <c r="E8">
+        <v>92521</v>
+      </c>
+      <c r="F8">
+        <v>11552</v>
+      </c>
+      <c r="G8">
+        <v>60300</v>
+      </c>
+      <c r="H8">
+        <v>41199</v>
+      </c>
+      <c r="I8">
+        <v>25909</v>
+      </c>
+      <c r="J8">
+        <v>5705</v>
+      </c>
+      <c r="K8">
+        <v>59540</v>
+      </c>
+      <c r="L8">
+        <v>78480</v>
+      </c>
+      <c r="M8">
+        <v>38649</v>
+      </c>
+      <c r="N8">
+        <v>10007</v>
+      </c>
+      <c r="O8">
+        <v>21517</v>
+      </c>
+      <c r="P8">
+        <v>74392</v>
+      </c>
+      <c r="Q8">
+        <v>50543</v>
+      </c>
+      <c r="R8">
+        <v>49916</v>
+      </c>
+      <c r="S8">
+        <v>55814</v>
+      </c>
+      <c r="T8">
+        <v>92516</v>
+      </c>
+      <c r="U8">
+        <v>45908</v>
+      </c>
+      <c r="V8">
+        <v>19431</v>
+      </c>
+      <c r="W8">
+        <v>67011</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>93253</v>
+      </c>
+      <c r="B9">
+        <v>10743</v>
+      </c>
+      <c r="C9">
+        <v>67619</v>
+      </c>
+      <c r="D9">
+        <v>22783</v>
+      </c>
+      <c r="E9">
+        <v>47120</v>
+      </c>
+      <c r="F9">
+        <v>1051</v>
+      </c>
+      <c r="G9">
+        <v>368</v>
+      </c>
+      <c r="H9">
+        <v>98580</v>
+      </c>
+      <c r="I9">
+        <v>67343</v>
+      </c>
+      <c r="J9">
+        <v>60644</v>
+      </c>
+      <c r="K9">
+        <v>66465</v>
+      </c>
+      <c r="L9">
+        <v>87506</v>
+      </c>
+      <c r="M9">
+        <v>94622</v>
+      </c>
+      <c r="N9">
+        <v>43134</v>
+      </c>
+      <c r="O9">
+        <v>69004</v>
+      </c>
+      <c r="P9">
+        <v>50697</v>
+      </c>
+      <c r="Q9">
+        <v>13244</v>
+      </c>
+      <c r="R9">
+        <v>92521</v>
+      </c>
+      <c r="S9">
+        <v>48823</v>
+      </c>
+      <c r="T9">
+        <v>11142</v>
+      </c>
+      <c r="U9">
+        <v>1111</v>
+      </c>
+      <c r="V9">
+        <v>98160</v>
+      </c>
+      <c r="W9">
+        <v>57786</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>13088</v>
+      </c>
+      <c r="B10">
+        <v>74090</v>
+      </c>
+      <c r="C10">
+        <v>77835</v>
+      </c>
+      <c r="D10">
+        <v>71947</v>
+      </c>
+      <c r="E10">
+        <v>79760</v>
+      </c>
+      <c r="F10">
+        <v>15950</v>
+      </c>
+      <c r="G10">
+        <v>46205</v>
+      </c>
+      <c r="H10">
+        <v>17953</v>
+      </c>
+      <c r="I10">
+        <v>17970</v>
+      </c>
+      <c r="J10">
+        <v>68116</v>
+      </c>
+      <c r="K10">
+        <v>6365</v>
+      </c>
+      <c r="L10">
+        <v>48268</v>
+      </c>
+      <c r="M10">
+        <v>85283</v>
+      </c>
+      <c r="N10">
+        <v>25001</v>
+      </c>
+      <c r="O10">
+        <v>88767</v>
+      </c>
+      <c r="P10">
+        <v>13279</v>
+      </c>
+      <c r="Q10">
+        <v>40247</v>
+      </c>
+      <c r="R10">
+        <v>25640</v>
+      </c>
+      <c r="S10">
+        <v>7124</v>
+      </c>
+      <c r="T10">
+        <v>92196</v>
+      </c>
+      <c r="U10">
+        <v>17935</v>
+      </c>
+      <c r="V10">
+        <v>72183</v>
+      </c>
+      <c r="W10">
+        <v>22499</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>26894</v>
+      </c>
+      <c r="B11">
+        <v>31356</v>
+      </c>
+      <c r="C11">
+        <v>81538</v>
+      </c>
+      <c r="D11">
+        <v>99217</v>
+      </c>
+      <c r="E11">
+        <v>42669</v>
+      </c>
+      <c r="F11">
+        <v>99993</v>
+      </c>
+      <c r="G11">
+        <v>97083</v>
+      </c>
+      <c r="H11">
+        <v>8388</v>
+      </c>
+      <c r="I11">
+        <v>65999</v>
+      </c>
+      <c r="J11">
+        <v>95092</v>
+      </c>
+      <c r="K11">
+        <v>52956</v>
+      </c>
+      <c r="L11">
+        <v>54629</v>
+      </c>
+      <c r="M11">
+        <v>48692</v>
+      </c>
+      <c r="N11">
+        <v>69283</v>
+      </c>
+      <c r="O11">
+        <v>29102</v>
+      </c>
+      <c r="P11">
+        <v>20607</v>
+      </c>
+      <c r="Q11">
+        <v>82729</v>
+      </c>
+      <c r="R11">
+        <v>21236</v>
+      </c>
+      <c r="S11">
+        <v>42790</v>
+      </c>
+      <c r="T11">
+        <v>48593</v>
+      </c>
+      <c r="U11">
+        <v>19489</v>
+      </c>
+      <c r="V11">
+        <v>88355</v>
+      </c>
+      <c r="W11">
+        <v>94865</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>83719</v>
+      </c>
+      <c r="B12">
+        <v>25795</v>
+      </c>
+      <c r="C12">
+        <v>24475</v>
+      </c>
+      <c r="D12">
+        <v>79341</v>
+      </c>
+      <c r="E12">
+        <v>8675</v>
+      </c>
+      <c r="F12">
+        <v>85501</v>
+      </c>
+      <c r="G12">
+        <v>93986</v>
+      </c>
+      <c r="H12">
+        <v>6063</v>
+      </c>
+      <c r="I12">
+        <v>39949</v>
+      </c>
+      <c r="J12">
+        <v>40904</v>
+      </c>
+      <c r="K12">
+        <v>51689</v>
+      </c>
+      <c r="L12">
+        <v>51040</v>
+      </c>
+      <c r="M12">
+        <v>40689</v>
+      </c>
+      <c r="N12">
+        <v>98221</v>
+      </c>
+      <c r="O12">
+        <v>16732</v>
+      </c>
+      <c r="P12">
+        <v>3635</v>
+      </c>
+      <c r="Q12">
+        <v>17958</v>
+      </c>
+      <c r="R12">
+        <v>20885</v>
+      </c>
+      <c r="S12">
+        <v>59827</v>
+      </c>
+      <c r="T12">
+        <v>40365</v>
+      </c>
+      <c r="U12">
+        <v>53174</v>
+      </c>
+      <c r="V12">
+        <v>32425</v>
+      </c>
+      <c r="W12">
+        <v>70370</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>40174</v>
+      </c>
+      <c r="B13">
+        <v>43994</v>
+      </c>
+      <c r="C13">
+        <v>11243</v>
+      </c>
+      <c r="D13">
+        <v>5132</v>
+      </c>
+      <c r="E13">
+        <v>24394</v>
+      </c>
+      <c r="F13">
+        <v>71058</v>
+      </c>
+      <c r="G13">
+        <v>75144</v>
+      </c>
+      <c r="H13">
+        <v>23688</v>
+      </c>
+      <c r="I13">
+        <v>3109</v>
+      </c>
+      <c r="J13">
+        <v>38537</v>
+      </c>
+      <c r="K13">
+        <v>36490</v>
+      </c>
+      <c r="L13">
+        <v>97817</v>
+      </c>
+      <c r="M13">
+        <v>73520</v>
+      </c>
+      <c r="N13">
+        <v>18292</v>
+      </c>
+      <c r="O13">
+        <v>20751</v>
+      </c>
+      <c r="P13">
+        <v>88507</v>
+      </c>
+      <c r="Q13">
+        <v>22885</v>
+      </c>
+      <c r="R13">
+        <v>72012</v>
+      </c>
+      <c r="S13">
+        <v>89128</v>
+      </c>
+      <c r="T13">
+        <v>13106</v>
+      </c>
+      <c r="U13">
+        <v>13823</v>
+      </c>
+      <c r="V13">
+        <v>97001</v>
+      </c>
+      <c r="W13">
+        <v>18341</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>88412</v>
+      </c>
+      <c r="B14">
+        <v>22384</v>
+      </c>
+      <c r="C14">
+        <v>66096</v>
+      </c>
+      <c r="D14">
+        <v>17700</v>
+      </c>
+      <c r="E14">
+        <v>24931</v>
+      </c>
+      <c r="F14">
+        <v>27807</v>
+      </c>
+      <c r="G14">
+        <v>59660</v>
+      </c>
+      <c r="H14">
+        <v>48089</v>
+      </c>
+      <c r="I14">
+        <v>41789</v>
+      </c>
+      <c r="J14">
+        <v>51392</v>
+      </c>
+      <c r="K14">
+        <v>55423</v>
+      </c>
+      <c r="L14">
+        <v>84299</v>
+      </c>
+      <c r="M14">
+        <v>35445</v>
+      </c>
+      <c r="N14">
+        <v>97430</v>
+      </c>
+      <c r="O14">
+        <v>80467</v>
+      </c>
+      <c r="P14">
+        <v>69690</v>
+      </c>
+      <c r="Q14">
+        <v>35003</v>
+      </c>
+      <c r="R14">
+        <v>64804</v>
+      </c>
+      <c r="S14">
+        <v>17314</v>
+      </c>
+      <c r="T14">
+        <v>48678</v>
+      </c>
+      <c r="U14">
+        <v>12602</v>
+      </c>
+      <c r="V14">
+        <v>4298</v>
+      </c>
+      <c r="W14">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>43210</v>
+      </c>
+      <c r="B15">
+        <v>85342</v>
+      </c>
+      <c r="C15">
+        <v>97205</v>
+      </c>
+      <c r="D15">
+        <v>32377</v>
+      </c>
+      <c r="E15">
+        <v>37040</v>
+      </c>
+      <c r="F15">
+        <v>68351</v>
+      </c>
+      <c r="G15">
+        <v>64045</v>
+      </c>
+      <c r="H15">
+        <v>19418</v>
+      </c>
+      <c r="I15">
+        <v>56646</v>
+      </c>
+      <c r="J15">
+        <v>43172</v>
+      </c>
+      <c r="K15">
+        <v>25751</v>
+      </c>
+      <c r="L15">
+        <v>22830</v>
+      </c>
+      <c r="M15">
+        <v>82746</v>
+      </c>
+      <c r="N15">
+        <v>58297</v>
+      </c>
+      <c r="O15">
+        <v>53456</v>
+      </c>
+      <c r="P15">
+        <v>50311</v>
+      </c>
+      <c r="Q15">
+        <v>95880</v>
+      </c>
+      <c r="R15">
+        <v>43447</v>
+      </c>
+      <c r="S15">
+        <v>90446</v>
+      </c>
+      <c r="T15">
+        <v>94699</v>
+      </c>
+      <c r="U15">
+        <v>46523</v>
+      </c>
+      <c r="V15">
+        <v>18195</v>
+      </c>
+      <c r="W15">
+        <v>33991</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>85304</v>
+      </c>
+      <c r="B16">
+        <v>91075</v>
+      </c>
+      <c r="C16">
+        <v>42417</v>
+      </c>
+      <c r="D16">
+        <v>2420</v>
+      </c>
+      <c r="E16">
+        <v>54223</v>
+      </c>
+      <c r="F16">
+        <v>48300</v>
+      </c>
+      <c r="G16">
+        <v>96508</v>
+      </c>
+      <c r="H16">
+        <v>48421</v>
+      </c>
+      <c r="I16">
+        <v>5838</v>
+      </c>
+      <c r="J16">
+        <v>84213</v>
+      </c>
+      <c r="K16">
+        <v>21980</v>
+      </c>
+      <c r="L16">
+        <v>22984</v>
+      </c>
+      <c r="M16">
+        <v>32357</v>
+      </c>
+      <c r="N16">
+        <v>27724</v>
+      </c>
+      <c r="O16">
+        <v>95428</v>
+      </c>
+      <c r="P16">
+        <v>22718</v>
+      </c>
+      <c r="Q16">
+        <v>79737</v>
+      </c>
+      <c r="R16">
+        <v>77743</v>
+      </c>
+      <c r="S16">
+        <v>32072</v>
+      </c>
+      <c r="T16">
+        <v>98776</v>
+      </c>
+      <c r="U16">
+        <v>41226</v>
+      </c>
+      <c r="V16">
+        <v>9793</v>
+      </c>
+      <c r="W16">
+        <v>74698</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>97719</v>
+      </c>
+      <c r="B17">
+        <v>11492</v>
+      </c>
+      <c r="C17">
+        <v>81545</v>
+      </c>
+      <c r="D17">
+        <v>14591</v>
+      </c>
+      <c r="E17">
+        <v>21433</v>
+      </c>
+      <c r="F17">
+        <v>5330</v>
+      </c>
+      <c r="G17">
+        <v>22155</v>
+      </c>
+      <c r="H17">
+        <v>9597</v>
+      </c>
+      <c r="I17">
+        <v>53977</v>
+      </c>
+      <c r="J17">
+        <v>25114</v>
+      </c>
+      <c r="K17">
+        <v>51449</v>
+      </c>
+      <c r="L17">
+        <v>12000</v>
+      </c>
+      <c r="M17">
+        <v>41300</v>
+      </c>
+      <c r="N17">
+        <v>94622</v>
+      </c>
+      <c r="O17">
+        <v>66029</v>
+      </c>
+      <c r="P17">
+        <v>9920</v>
+      </c>
+      <c r="Q17">
+        <v>71117</v>
+      </c>
+      <c r="R17">
+        <v>60136</v>
+      </c>
+      <c r="S17">
+        <v>94749</v>
+      </c>
+      <c r="T17">
+        <v>20012</v>
+      </c>
+      <c r="U17">
+        <v>38616</v>
+      </c>
+      <c r="V17">
+        <v>60864</v>
+      </c>
+      <c r="W17">
+        <v>35411</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>21198</v>
+      </c>
+      <c r="B18">
+        <v>22686</v>
+      </c>
+      <c r="C18">
+        <v>550</v>
+      </c>
+      <c r="D18">
+        <v>20827</v>
+      </c>
+      <c r="E18">
+        <v>10808</v>
+      </c>
+      <c r="F18">
+        <v>17054</v>
+      </c>
+      <c r="G18">
+        <v>14550</v>
+      </c>
+      <c r="H18">
+        <v>19417</v>
+      </c>
+      <c r="I18">
+        <v>92763</v>
+      </c>
+      <c r="J18">
+        <v>75610</v>
+      </c>
+      <c r="K18">
+        <v>16476</v>
+      </c>
+      <c r="L18">
+        <v>44696</v>
+      </c>
+      <c r="M18">
+        <v>90927</v>
+      </c>
+      <c r="N18">
+        <v>72677</v>
+      </c>
+      <c r="O18">
+        <v>33807</v>
+      </c>
+      <c r="P18">
+        <v>75174</v>
+      </c>
+      <c r="Q18">
+        <v>43190</v>
+      </c>
+      <c r="R18">
+        <v>83682</v>
+      </c>
+      <c r="S18">
+        <v>74714</v>
+      </c>
+      <c r="T18">
+        <v>68001</v>
+      </c>
+      <c r="U18">
+        <v>97869</v>
+      </c>
+      <c r="V18">
+        <v>80906</v>
+      </c>
+      <c r="W18">
+        <v>15823</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>54226</v>
+      </c>
+      <c r="B19">
+        <v>28095</v>
+      </c>
+      <c r="C19">
+        <v>13806</v>
+      </c>
+      <c r="D19">
+        <v>67922</v>
+      </c>
+      <c r="E19">
+        <v>60954</v>
+      </c>
+      <c r="F19">
+        <v>38739</v>
+      </c>
+      <c r="G19">
+        <v>46476</v>
+      </c>
+      <c r="H19">
+        <v>89779</v>
+      </c>
+      <c r="I19">
+        <v>36181</v>
+      </c>
+      <c r="J19">
+        <v>36953</v>
+      </c>
+      <c r="K19">
+        <v>76079</v>
+      </c>
+      <c r="L19">
+        <v>60446</v>
+      </c>
+      <c r="M19">
+        <v>91904</v>
+      </c>
+      <c r="N19">
+        <v>20981</v>
+      </c>
+      <c r="O19">
+        <v>84501</v>
+      </c>
+      <c r="P19">
+        <v>11445</v>
+      </c>
+      <c r="Q19">
+        <v>92541</v>
+      </c>
+      <c r="R19">
+        <v>39526</v>
+      </c>
+      <c r="S19">
+        <v>5795</v>
+      </c>
+      <c r="T19">
+        <v>58685</v>
+      </c>
+      <c r="U19">
+        <v>36389</v>
+      </c>
+      <c r="V19">
+        <v>24923</v>
+      </c>
+      <c r="W19">
+        <v>50025</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>75101</v>
+      </c>
+      <c r="B20">
+        <v>37241</v>
+      </c>
+      <c r="C20">
+        <v>37408</v>
+      </c>
+      <c r="D20">
+        <v>84961</v>
+      </c>
+      <c r="E20">
+        <v>51657</v>
+      </c>
+      <c r="F20">
+        <v>36329</v>
+      </c>
+      <c r="G20">
+        <v>63901</v>
+      </c>
+      <c r="H20">
+        <v>92862</v>
+      </c>
+      <c r="I20">
+        <v>37541</v>
+      </c>
+      <c r="J20">
+        <v>40290</v>
+      </c>
+      <c r="K20">
+        <v>6962</v>
+      </c>
+      <c r="L20">
+        <v>46322</v>
+      </c>
+      <c r="M20">
+        <v>92731</v>
+      </c>
+      <c r="N20">
+        <v>97000</v>
+      </c>
+      <c r="O20">
+        <v>49131</v>
+      </c>
+      <c r="P20">
+        <v>53594</v>
+      </c>
+      <c r="Q20">
+        <v>80677</v>
+      </c>
+      <c r="R20">
+        <v>46386</v>
+      </c>
+      <c r="S20">
+        <v>85829</v>
+      </c>
+      <c r="T20">
+        <v>80293</v>
+      </c>
+      <c r="U20">
+        <v>7841</v>
+      </c>
+      <c r="V20">
+        <v>14946</v>
+      </c>
+      <c r="W20">
+        <v>12330</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>41901</v>
+      </c>
+      <c r="B21">
+        <v>54292</v>
+      </c>
+      <c r="C21">
+        <v>58688</v>
+      </c>
+      <c r="D21">
+        <v>72335</v>
+      </c>
+      <c r="E21">
+        <v>82171</v>
+      </c>
+      <c r="F21">
+        <v>28574</v>
+      </c>
+      <c r="G21">
+        <v>92172</v>
+      </c>
+      <c r="H21">
+        <v>22320</v>
+      </c>
+      <c r="I21">
+        <v>79433</v>
+      </c>
+      <c r="J21">
+        <v>29402</v>
+      </c>
+      <c r="K21">
+        <v>78068</v>
+      </c>
+      <c r="L21">
+        <v>38703</v>
+      </c>
+      <c r="M21">
+        <v>30779</v>
+      </c>
+      <c r="N21">
+        <v>23644</v>
+      </c>
+      <c r="O21">
+        <v>53776</v>
+      </c>
+      <c r="P21">
+        <v>94817</v>
+      </c>
+      <c r="Q21">
+        <v>53549</v>
+      </c>
+      <c r="R21">
+        <v>72278</v>
+      </c>
+      <c r="S21">
+        <v>44090</v>
+      </c>
+      <c r="T21">
+        <v>38636</v>
+      </c>
+      <c r="U21">
+        <v>20254</v>
+      </c>
+      <c r="V21">
+        <v>85041</v>
+      </c>
+      <c r="W21">
+        <v>74657</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>91768</v>
+      </c>
+      <c r="B22">
+        <v>14443</v>
+      </c>
+      <c r="C22">
+        <v>43509</v>
+      </c>
+      <c r="D22">
+        <v>85931</v>
+      </c>
+      <c r="E22">
+        <v>25116</v>
+      </c>
+      <c r="F22">
+        <v>12398</v>
+      </c>
+      <c r="G22">
+        <v>50558</v>
+      </c>
+      <c r="H22">
+        <v>44628</v>
+      </c>
+      <c r="I22">
+        <v>42283</v>
+      </c>
+      <c r="J22">
+        <v>60254</v>
+      </c>
+      <c r="K22">
+        <v>25010</v>
+      </c>
+      <c r="L22">
+        <v>95505</v>
+      </c>
+      <c r="M22">
+        <v>30768</v>
+      </c>
+      <c r="N22">
+        <v>92968</v>
+      </c>
+      <c r="O22">
+        <v>63993</v>
+      </c>
+      <c r="P22">
+        <v>81728</v>
+      </c>
+      <c r="Q22">
+        <v>64386</v>
+      </c>
+      <c r="R22">
+        <v>45367</v>
+      </c>
+      <c r="S22">
+        <v>18068</v>
+      </c>
+      <c r="T22">
+        <v>27527</v>
+      </c>
+      <c r="U22">
+        <v>17019</v>
+      </c>
+      <c r="V22">
+        <v>14761</v>
+      </c>
+      <c r="W22">
+        <v>58396</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>18450</v>
+      </c>
+      <c r="B23">
+        <v>30048</v>
+      </c>
+      <c r="C23">
+        <v>26999</v>
+      </c>
+      <c r="D23">
+        <v>51567</v>
+      </c>
+      <c r="E23">
+        <v>32379</v>
+      </c>
+      <c r="F23">
+        <v>8113</v>
+      </c>
+      <c r="G23">
+        <v>63749</v>
+      </c>
+      <c r="H23">
+        <v>76308</v>
+      </c>
+      <c r="I23">
+        <v>92074</v>
+      </c>
+      <c r="J23">
+        <v>56859</v>
+      </c>
+      <c r="K23">
+        <v>79633</v>
+      </c>
+      <c r="L23">
+        <v>66918</v>
+      </c>
+      <c r="M23">
+        <v>57990</v>
+      </c>
+      <c r="N23">
+        <v>38761</v>
+      </c>
+      <c r="O23">
+        <v>42641</v>
+      </c>
+      <c r="P23">
+        <v>67154</v>
+      </c>
+      <c r="Q23">
+        <v>10021</v>
+      </c>
+      <c r="R23">
+        <v>28973</v>
+      </c>
+      <c r="S23">
+        <v>84772</v>
+      </c>
+      <c r="T23">
+        <v>35884</v>
+      </c>
+      <c r="U23">
+        <v>78448</v>
+      </c>
+      <c r="V23">
+        <v>5867</v>
+      </c>
+      <c r="W23">
+        <v>28137</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23107</v>
+      </c>
+      <c r="B24">
+        <v>1948</v>
+      </c>
+      <c r="C24">
+        <v>89555</v>
+      </c>
+      <c r="D24">
+        <v>90549</v>
+      </c>
+      <c r="E24">
+        <v>79702</v>
+      </c>
+      <c r="F24">
+        <v>93268</v>
+      </c>
+      <c r="G24">
+        <v>2285</v>
+      </c>
+      <c r="H24">
+        <v>57612</v>
+      </c>
+      <c r="I24">
+        <v>57736</v>
+      </c>
+      <c r="J24">
+        <v>77106</v>
+      </c>
+      <c r="K24">
+        <v>56046</v>
+      </c>
+      <c r="L24">
+        <v>25157</v>
+      </c>
+      <c r="M24">
+        <v>55981</v>
+      </c>
+      <c r="N24">
+        <v>98116</v>
+      </c>
+      <c r="O24">
+        <v>60829</v>
+      </c>
+      <c r="P24">
+        <v>18278</v>
+      </c>
+      <c r="Q24">
+        <v>36613</v>
+      </c>
+      <c r="R24">
+        <v>78532</v>
+      </c>
+      <c r="S24">
+        <v>83944</v>
+      </c>
+      <c r="T24">
+        <v>32935</v>
+      </c>
+      <c r="U24">
+        <v>38745</v>
+      </c>
+      <c r="V24">
+        <v>51133</v>
+      </c>
+      <c r="W24">
+        <v>26148</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>6101</v>
+      </c>
+      <c r="B25">
+        <v>43066</v>
+      </c>
+      <c r="C25">
+        <v>21844</v>
+      </c>
+      <c r="D25">
+        <v>78211</v>
+      </c>
+      <c r="E25">
+        <v>8145</v>
+      </c>
+      <c r="F25">
+        <v>98553</v>
+      </c>
+      <c r="G25">
+        <v>32246</v>
+      </c>
+      <c r="H25">
+        <v>78875</v>
+      </c>
+      <c r="I25">
+        <v>79946</v>
+      </c>
+      <c r="J25">
+        <v>12681</v>
+      </c>
+      <c r="K25">
+        <v>2010</v>
+      </c>
+      <c r="L25">
+        <v>3991</v>
+      </c>
+      <c r="M25">
+        <v>49717</v>
+      </c>
+      <c r="N25">
+        <v>42823</v>
+      </c>
+      <c r="O25">
+        <v>17563</v>
+      </c>
+      <c r="P25">
+        <v>84045</v>
+      </c>
+      <c r="Q25">
+        <v>83039</v>
+      </c>
+      <c r="R25">
+        <v>89887</v>
+      </c>
+      <c r="S25">
+        <v>99246</v>
+      </c>
+      <c r="T25">
+        <v>21996</v>
+      </c>
+      <c r="U25">
+        <v>89810</v>
+      </c>
+      <c r="V25">
+        <v>2042</v>
+      </c>
+      <c r="W25">
+        <v>13702</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>86659</v>
+      </c>
+      <c r="B26">
+        <v>69037</v>
+      </c>
+      <c r="C26">
+        <v>49190</v>
+      </c>
+      <c r="D26">
+        <v>10794</v>
+      </c>
+      <c r="E26">
+        <v>48257</v>
+      </c>
+      <c r="F26">
+        <v>57350</v>
+      </c>
+      <c r="G26">
+        <v>94503</v>
+      </c>
+      <c r="H26">
+        <v>72931</v>
+      </c>
+      <c r="I26">
+        <v>89391</v>
+      </c>
+      <c r="J26">
+        <v>71972</v>
+      </c>
+      <c r="K26">
+        <v>75798</v>
+      </c>
+      <c r="L26">
+        <v>83552</v>
+      </c>
+      <c r="M26">
+        <v>47582</v>
+      </c>
+      <c r="N26">
+        <v>57957</v>
+      </c>
+      <c r="O26">
+        <v>15155</v>
+      </c>
+      <c r="P26">
+        <v>94138</v>
+      </c>
+      <c r="Q26">
+        <v>59058</v>
+      </c>
+      <c r="R26">
+        <v>25589</v>
+      </c>
+      <c r="S26">
+        <v>98229</v>
+      </c>
+      <c r="T26">
+        <v>76098</v>
+      </c>
+      <c r="U26">
+        <v>12574</v>
+      </c>
+      <c r="V26">
+        <v>54070</v>
+      </c>
+      <c r="W26">
+        <v>94223</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>11211</v>
+      </c>
+      <c r="B27">
+        <v>75454</v>
+      </c>
+      <c r="C27">
+        <v>19149</v>
+      </c>
+      <c r="D27">
+        <v>94486</v>
+      </c>
+      <c r="E27">
+        <v>1003</v>
+      </c>
+      <c r="F27">
+        <v>43046</v>
+      </c>
+      <c r="G27">
+        <v>39498</v>
+      </c>
+      <c r="H27">
+        <v>29236</v>
+      </c>
+      <c r="I27">
+        <v>36337</v>
+      </c>
+      <c r="J27">
+        <v>4157</v>
+      </c>
+      <c r="K27">
+        <v>29462</v>
+      </c>
+      <c r="L27">
+        <v>35184</v>
+      </c>
+      <c r="M27">
+        <v>9273</v>
+      </c>
+      <c r="N27">
+        <v>58953</v>
+      </c>
+      <c r="O27">
+        <v>87857</v>
+      </c>
+      <c r="P27">
+        <v>83987</v>
+      </c>
+      <c r="Q27">
+        <v>21623</v>
+      </c>
+      <c r="R27">
+        <v>85442</v>
+      </c>
+      <c r="S27">
+        <v>39749</v>
+      </c>
+      <c r="T27">
+        <v>12617</v>
+      </c>
+      <c r="U27">
+        <v>32018</v>
+      </c>
+      <c r="V27">
+        <v>73918</v>
+      </c>
+      <c r="W27">
+        <v>59269</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>69980</v>
+      </c>
+      <c r="B28">
+        <v>26186</v>
+      </c>
+      <c r="C28">
+        <v>67983</v>
+      </c>
+      <c r="D28">
+        <v>95747</v>
+      </c>
+      <c r="E28">
+        <v>40286</v>
+      </c>
+      <c r="F28">
+        <v>96405</v>
+      </c>
+      <c r="G28">
+        <v>91580</v>
+      </c>
+      <c r="H28">
+        <v>25943</v>
+      </c>
+      <c r="I28">
+        <v>1226</v>
+      </c>
+      <c r="J28">
+        <v>32688</v>
+      </c>
+      <c r="K28">
+        <v>74813</v>
+      </c>
+      <c r="L28">
+        <v>38078</v>
+      </c>
+      <c r="M28">
+        <v>35339</v>
+      </c>
+      <c r="N28">
+        <v>29207</v>
+      </c>
+      <c r="O28">
+        <v>62863</v>
+      </c>
+      <c r="P28">
+        <v>93598</v>
+      </c>
+      <c r="Q28">
+        <v>29983</v>
+      </c>
+      <c r="R28">
+        <v>49992</v>
+      </c>
+      <c r="S28">
+        <v>42834</v>
+      </c>
+      <c r="T28">
+        <v>39560</v>
+      </c>
+      <c r="U28">
+        <v>79494</v>
+      </c>
+      <c r="V28">
+        <v>18218</v>
+      </c>
+      <c r="W28">
+        <v>22872</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>5981</v>
+      </c>
+      <c r="B29">
+        <v>35284</v>
+      </c>
+      <c r="C29">
+        <v>71199</v>
+      </c>
+      <c r="D29">
+        <v>41600</v>
+      </c>
+      <c r="E29">
+        <v>76704</v>
+      </c>
+      <c r="F29">
+        <v>90655</v>
+      </c>
+      <c r="G29">
+        <v>72824</v>
+      </c>
+      <c r="H29">
+        <v>41551</v>
+      </c>
+      <c r="I29">
+        <v>62304</v>
+      </c>
+      <c r="J29">
+        <v>37292</v>
+      </c>
+      <c r="K29">
+        <v>16283</v>
+      </c>
+      <c r="L29">
+        <v>49167</v>
+      </c>
+      <c r="M29">
+        <v>68398</v>
+      </c>
+      <c r="N29">
+        <v>33019</v>
+      </c>
+      <c r="O29">
+        <v>47297</v>
+      </c>
+      <c r="P29">
+        <v>99210</v>
+      </c>
+      <c r="Q29">
+        <v>32830</v>
+      </c>
+      <c r="R29">
+        <v>44755</v>
+      </c>
+      <c r="S29">
+        <v>78213</v>
+      </c>
+      <c r="T29">
+        <v>28335</v>
+      </c>
+      <c r="U29">
+        <v>2595</v>
+      </c>
+      <c r="V29">
+        <v>34458</v>
+      </c>
+      <c r="W29">
+        <v>20973</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>52616</v>
+      </c>
+      <c r="B30">
+        <v>54879</v>
+      </c>
+      <c r="C30">
+        <v>58759</v>
+      </c>
+      <c r="D30">
+        <v>91843</v>
+      </c>
+      <c r="E30">
+        <v>9864</v>
+      </c>
+      <c r="F30">
+        <v>62624</v>
+      </c>
+      <c r="G30">
+        <v>89182</v>
+      </c>
+      <c r="H30">
+        <v>34456</v>
+      </c>
+      <c r="I30">
+        <v>79774</v>
+      </c>
+      <c r="J30">
+        <v>51861</v>
+      </c>
+      <c r="K30">
+        <v>3413</v>
+      </c>
+      <c r="L30">
+        <v>62100</v>
+      </c>
+      <c r="M30">
+        <v>60562</v>
+      </c>
+      <c r="N30">
+        <v>69085</v>
+      </c>
+      <c r="O30">
+        <v>54903</v>
+      </c>
+      <c r="P30">
+        <v>14974</v>
+      </c>
+      <c r="Q30">
+        <v>35287</v>
+      </c>
+      <c r="R30">
+        <v>28400</v>
+      </c>
+      <c r="S30">
+        <v>91135</v>
+      </c>
+      <c r="T30">
+        <v>12607</v>
+      </c>
+      <c r="U30">
+        <v>885</v>
+      </c>
+      <c r="V30">
+        <v>19154</v>
+      </c>
+      <c r="W30">
+        <v>80038</v>
       </c>
     </row>
   </sheetData>
